--- a/biology/Botanique/Parc_du_Sanatorium_(Tartu)/Parc_du_Sanatorium_(Tartu).xlsx
+++ b/biology/Botanique/Parc_du_Sanatorium_(Tartu)/Parc_du_Sanatorium_(Tartu).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc du Sanatoorium (estonien : Sanatooriumi park) est un parc du quartier de Maarjamõisa à Tartu en Estonie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc du Sanatoorium (estonien : Sanatooriumi park) est un parc du quartier de Maarjamõisa à Tartu en Estonie.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc du sanatorium est un parc en trois parties entourant la clinique de pneumologie historique de Tartu.
 Le parc d'une superficie de 15,3 ha est situé entre la rue Riia tänav, la rue Sanatorium tänav et la rue Tervise tänav, la rue Raja tänav et la rue Puhkekodu tänav. 
 La rue Raja  tänav traversant le parc distingue le parc forestier au sud-est et deux parcs-jardins avec des solutions formelles différentes au nord-est et au nord-ouest, qui à leur tour se distinguent l'un de l'autre par l'allée de tilleuls ouest traversant le parc dans le prolongement de la rue Puhkekodu  tänav. 
 Le parc dispose d'un sentier de randonnée éclairé de 1 200 mètres de long recouvert de copeaux de bois, d'un terrain de gymnastique et d'un terrain de volley-ball.
 Le parc du sanatorium est l'un des trois plus grands parcs de la zone urbaine de Tartu, à côté du parc naturel de Toomemägi et du parc de Ropka.
-Le massif du parc, qui offre divers habitats avec des arbres centenaires, a un rôle écologique dans la zone, étant, entre autres, un important stabilisateur climatique local dans la zone des îlots de chaleur du Lõunakeskus[2].
+Le massif du parc, qui offre divers habitats avec des arbres centenaires, a un rôle écologique dans la zone, étant, entre autres, un important stabilisateur climatique local dans la zone des îlots de chaleur du Lõunakeskus.
 La partie nord-est du parc, qui est la plus grande partie du parc, est délimitée par des allées de tilleuls à  le long de la rue Sanatorium tänav est appelée partie Eisenschmidt du parc en référence à son fondateur.
 On y trouve la villa d'Eisenschmidt, les bâtiments de la clinique de pneumologie de l’hôpital universitaire de Tartu. 
 Les sentiers de randonnée sont balisés et bordés d’équipements sportifs de plein air. 
